--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.503062666666667</v>
+        <v>0.6869109999999999</v>
       </c>
       <c r="H2">
-        <v>4.509188</v>
+        <v>2.060733</v>
       </c>
       <c r="I2">
-        <v>0.1529782459008696</v>
+        <v>0.08184737208886859</v>
       </c>
       <c r="J2">
-        <v>0.1529782459008696</v>
+        <v>0.08184737208886859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.855085666666668</v>
+        <v>10.43365533333333</v>
       </c>
       <c r="N2">
-        <v>17.565257</v>
+        <v>31.300966</v>
       </c>
       <c r="O2">
-        <v>0.106330777065451</v>
+        <v>0.1673546557507891</v>
       </c>
       <c r="P2">
-        <v>0.106330777065451</v>
+        <v>0.1673546557507891</v>
       </c>
       <c r="Q2">
-        <v>8.80056067570178</v>
+        <v>7.166992618675334</v>
       </c>
       <c r="R2">
-        <v>79.20504608131601</v>
+        <v>64.50293356807801</v>
       </c>
       <c r="S2">
-        <v>0.01626629576074912</v>
+        <v>0.01369753878003935</v>
       </c>
       <c r="T2">
-        <v>0.01626629576074912</v>
+        <v>0.01369753878003935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.503062666666667</v>
+        <v>0.6869109999999999</v>
       </c>
       <c r="H3">
-        <v>4.509188</v>
+        <v>2.060733</v>
       </c>
       <c r="I3">
-        <v>0.1529782459008696</v>
+        <v>0.08184737208886859</v>
       </c>
       <c r="J3">
-        <v>0.1529782459008696</v>
+        <v>0.08184737208886859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>100.264818</v>
       </c>
       <c r="O3">
-        <v>0.6069501863972739</v>
+        <v>0.5360787938719054</v>
       </c>
       <c r="P3">
-        <v>0.6069501863972738</v>
+        <v>0.5360787938719054</v>
       </c>
       <c r="Q3">
-        <v>50.23476823864266</v>
+        <v>22.957668799066</v>
       </c>
       <c r="R3">
-        <v>452.112914147784</v>
+        <v>206.619019191594</v>
       </c>
       <c r="S3">
-        <v>0.09285017486426082</v>
+        <v>0.04387664051098573</v>
       </c>
       <c r="T3">
-        <v>0.09285017486426081</v>
+        <v>0.04387664051098573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.503062666666667</v>
+        <v>0.6869109999999999</v>
       </c>
       <c r="H4">
-        <v>4.509188</v>
+        <v>2.060733</v>
       </c>
       <c r="I4">
-        <v>0.1529782459008696</v>
+        <v>0.08184737208886859</v>
       </c>
       <c r="J4">
-        <v>0.1529782459008696</v>
+        <v>0.08184737208886859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.267428</v>
+        <v>18.162159</v>
       </c>
       <c r="N4">
-        <v>45.802284</v>
+        <v>54.486477</v>
       </c>
       <c r="O4">
-        <v>0.2772628062938376</v>
+        <v>0.2913189836188534</v>
       </c>
       <c r="P4">
-        <v>0.2772628062938375</v>
+        <v>0.2913189836188534</v>
       </c>
       <c r="Q4">
-        <v>22.94790104282134</v>
+        <v>12.475786800849</v>
       </c>
       <c r="R4">
-        <v>206.531109385392</v>
+        <v>112.282081207641</v>
       </c>
       <c r="S4">
-        <v>0.04241517776038387</v>
+        <v>0.02384369324880331</v>
       </c>
       <c r="T4">
-        <v>0.04241517776038386</v>
+        <v>0.02384369324880331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.503062666666667</v>
+        <v>0.6869109999999999</v>
       </c>
       <c r="H5">
-        <v>4.509188</v>
+        <v>2.060733</v>
       </c>
       <c r="I5">
-        <v>0.1529782459008696</v>
+        <v>0.08184737208886859</v>
       </c>
       <c r="J5">
-        <v>0.1529782459008696</v>
+        <v>0.08184737208886859</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5207056666666666</v>
+        <v>0.3271573333333334</v>
       </c>
       <c r="N5">
-        <v>1.562117</v>
+        <v>0.981472</v>
       </c>
       <c r="O5">
-        <v>0.009456230243437438</v>
+        <v>0.005247566758452071</v>
       </c>
       <c r="P5">
-        <v>0.009456230243437438</v>
+        <v>0.00524756675845207</v>
       </c>
       <c r="Q5">
-        <v>0.7826532478884444</v>
+        <v>0.2247279709973333</v>
       </c>
       <c r="R5">
-        <v>7.043879230996</v>
+        <v>2.022551738976</v>
       </c>
       <c r="S5">
-        <v>0.001446597515475813</v>
+        <v>0.0004294995490402046</v>
       </c>
       <c r="T5">
-        <v>0.001446597515475813</v>
+        <v>0.0004294995490402046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.261856</v>
       </c>
       <c r="I6">
-        <v>0.1445872860395478</v>
+        <v>0.1692706982521157</v>
       </c>
       <c r="J6">
-        <v>0.1445872860395478</v>
+        <v>0.1692706982521157</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.855085666666668</v>
+        <v>10.43365533333333</v>
       </c>
       <c r="N6">
-        <v>17.565257</v>
+        <v>31.300966</v>
       </c>
       <c r="O6">
-        <v>0.106330777065451</v>
+        <v>0.1673546557507891</v>
       </c>
       <c r="P6">
-        <v>0.106330777065451</v>
+        <v>0.1673546557507891</v>
       </c>
       <c r="Q6">
-        <v>8.317843992999112</v>
+        <v>14.82224552809956</v>
       </c>
       <c r="R6">
-        <v>74.86059593699201</v>
+        <v>133.400209752896</v>
       </c>
       <c r="S6">
-        <v>0.01537407847836976</v>
+        <v>0.02832823943467852</v>
       </c>
       <c r="T6">
-        <v>0.01537407847836976</v>
+        <v>0.02832823943467852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.261856</v>
       </c>
       <c r="I7">
-        <v>0.1445872860395478</v>
+        <v>0.1692706982521157</v>
       </c>
       <c r="J7">
-        <v>0.1445872860395478</v>
+        <v>0.1692706982521157</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>100.264818</v>
       </c>
       <c r="O7">
-        <v>0.6069501863972739</v>
+        <v>0.5360787938719054</v>
       </c>
       <c r="P7">
-        <v>0.6069501863972738</v>
+        <v>0.5360787938719054</v>
       </c>
       <c r="Q7">
         <v>47.47935735357866</v>
@@ -883,10 +883,10 @@
         <v>427.3142161822079</v>
       </c>
       <c r="S7">
-        <v>0.08775728021237951</v>
+        <v>0.09074243175684943</v>
       </c>
       <c r="T7">
-        <v>0.0877572802123795</v>
+        <v>0.09074243175684943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.261856</v>
       </c>
       <c r="I8">
-        <v>0.1445872860395478</v>
+        <v>0.1692706982521157</v>
       </c>
       <c r="J8">
-        <v>0.1445872860395478</v>
+        <v>0.1692706982521157</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.267428</v>
+        <v>18.162159</v>
       </c>
       <c r="N8">
-        <v>45.802284</v>
+        <v>54.486477</v>
       </c>
       <c r="O8">
-        <v>0.2772628062938376</v>
+        <v>0.2913189836188534</v>
       </c>
       <c r="P8">
-        <v>0.2772628062938375</v>
+        <v>0.2913189836188534</v>
       </c>
       <c r="Q8">
-        <v>21.68919320878933</v>
+        <v>25.801502102368</v>
       </c>
       <c r="R8">
-        <v>195.202738879104</v>
+        <v>232.213518921312</v>
       </c>
       <c r="S8">
-        <v>0.04008867668173483</v>
+        <v>0.04931176777125997</v>
       </c>
       <c r="T8">
-        <v>0.04008867668173483</v>
+        <v>0.04931176777125997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.261856</v>
       </c>
       <c r="I9">
-        <v>0.1445872860395478</v>
+        <v>0.1692706982521157</v>
       </c>
       <c r="J9">
-        <v>0.1445872860395478</v>
+        <v>0.1692706982521157</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5207056666666666</v>
+        <v>0.3271573333333334</v>
       </c>
       <c r="N9">
-        <v>1.562117</v>
+        <v>0.981472</v>
       </c>
       <c r="O9">
-        <v>0.009456230243437438</v>
+        <v>0.005247566758452071</v>
       </c>
       <c r="P9">
-        <v>0.009456230243437438</v>
+        <v>0.00524756675845207</v>
       </c>
       <c r="Q9">
-        <v>0.7397241899057777</v>
+        <v>0.4647658146702223</v>
       </c>
       <c r="R9">
-        <v>6.657517709152</v>
+        <v>4.182892332032</v>
       </c>
       <c r="S9">
-        <v>0.001367250667063712</v>
+        <v>0.0008882592893277734</v>
       </c>
       <c r="T9">
-        <v>0.001367250667063712</v>
+        <v>0.0008882592893277733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.872285333333334</v>
+        <v>2.651481</v>
       </c>
       <c r="H10">
-        <v>8.616856</v>
+        <v>7.954443000000001</v>
       </c>
       <c r="I10">
-        <v>0.2923345657933055</v>
+        <v>0.3159313972167653</v>
       </c>
       <c r="J10">
-        <v>0.2923345657933055</v>
+        <v>0.3159313972167653</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.855085666666668</v>
+        <v>10.43365533333333</v>
       </c>
       <c r="N10">
-        <v>17.565257</v>
+        <v>31.300966</v>
       </c>
       <c r="O10">
-        <v>0.106330777065451</v>
+        <v>0.1673546557507891</v>
       </c>
       <c r="P10">
-        <v>0.106330777065451</v>
+        <v>0.1673546557507891</v>
       </c>
       <c r="Q10">
-        <v>16.81747668577689</v>
+        <v>27.66463887688201</v>
       </c>
       <c r="R10">
-        <v>151.357290171992</v>
+        <v>248.9817498919381</v>
       </c>
       <c r="S10">
-        <v>0.0310841615438934</v>
+        <v>0.05287259022207756</v>
       </c>
       <c r="T10">
-        <v>0.0310841615438934</v>
+        <v>0.05287259022207756</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.872285333333334</v>
+        <v>2.651481</v>
       </c>
       <c r="H11">
-        <v>8.616856</v>
+        <v>7.954443000000001</v>
       </c>
       <c r="I11">
-        <v>0.2923345657933055</v>
+        <v>0.3159313972167653</v>
       </c>
       <c r="J11">
-        <v>0.2923345657933055</v>
+        <v>0.3159313972167653</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>100.264818</v>
       </c>
       <c r="O11">
-        <v>0.6069501863972739</v>
+        <v>0.5360787938719054</v>
       </c>
       <c r="P11">
-        <v>0.6069501863972738</v>
+        <v>0.5360787938719054</v>
       </c>
       <c r="Q11">
-        <v>95.99638873024533</v>
+        <v>88.616753298486</v>
       </c>
       <c r="R11">
-        <v>863.967498572208</v>
+        <v>797.5507796863741</v>
       </c>
       <c r="S11">
-        <v>0.1774325191986129</v>
+        <v>0.1693641223662294</v>
       </c>
       <c r="T11">
-        <v>0.1774325191986129</v>
+        <v>0.1693641223662294</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.872285333333334</v>
+        <v>2.651481</v>
       </c>
       <c r="H12">
-        <v>8.616856</v>
+        <v>7.954443000000001</v>
       </c>
       <c r="I12">
-        <v>0.2923345657933055</v>
+        <v>0.3159313972167653</v>
       </c>
       <c r="J12">
-        <v>0.2923345657933055</v>
+        <v>0.3159313972167653</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.267428</v>
+        <v>18.162159</v>
       </c>
       <c r="N12">
-        <v>45.802284</v>
+        <v>54.486477</v>
       </c>
       <c r="O12">
-        <v>0.2772628062938376</v>
+        <v>0.2913189836188534</v>
       </c>
       <c r="P12">
-        <v>0.2772628062938375</v>
+        <v>0.2913189836188534</v>
       </c>
       <c r="Q12">
-        <v>43.85240952212267</v>
+        <v>48.15661950747901</v>
       </c>
       <c r="R12">
-        <v>394.671685699104</v>
+        <v>433.4095755673111</v>
       </c>
       <c r="S12">
-        <v>0.0810535020885424</v>
+        <v>0.0920368135304723</v>
       </c>
       <c r="T12">
-        <v>0.08105350208854238</v>
+        <v>0.0920368135304723</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.872285333333334</v>
+        <v>2.651481</v>
       </c>
       <c r="H13">
-        <v>8.616856</v>
+        <v>7.954443000000001</v>
       </c>
       <c r="I13">
-        <v>0.2923345657933055</v>
+        <v>0.3159313972167653</v>
       </c>
       <c r="J13">
-        <v>0.2923345657933055</v>
+        <v>0.3159313972167653</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5207056666666666</v>
+        <v>0.3271573333333334</v>
       </c>
       <c r="N13">
-        <v>1.562117</v>
+        <v>0.981472</v>
       </c>
       <c r="O13">
-        <v>0.009456230243437438</v>
+        <v>0.005247566758452071</v>
       </c>
       <c r="P13">
-        <v>0.009456230243437438</v>
+        <v>0.00524756675845207</v>
       </c>
       <c r="Q13">
-        <v>1.495615249350222</v>
+        <v>0.8674514533440002</v>
       </c>
       <c r="R13">
-        <v>13.460537244152</v>
+        <v>7.807063080096001</v>
       </c>
       <c r="S13">
-        <v>0.002764382962256807</v>
+        <v>0.001657871097986014</v>
       </c>
       <c r="T13">
-        <v>0.002764382962256807</v>
+        <v>0.001657871097986014</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.029369333333333</v>
+        <v>3.633574000000001</v>
       </c>
       <c r="H14">
-        <v>12.088108</v>
+        <v>10.900722</v>
       </c>
       <c r="I14">
-        <v>0.410099902266277</v>
+        <v>0.4329505324422505</v>
       </c>
       <c r="J14">
-        <v>0.410099902266277</v>
+        <v>0.4329505324422504</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.855085666666668</v>
+        <v>10.43365533333333</v>
       </c>
       <c r="N14">
-        <v>17.565257</v>
+        <v>31.300966</v>
       </c>
       <c r="O14">
-        <v>0.106330777065451</v>
+        <v>0.1673546557507891</v>
       </c>
       <c r="P14">
-        <v>0.106330777065451</v>
+        <v>0.1673546557507891</v>
       </c>
       <c r="Q14">
-        <v>23.59230262930623</v>
+        <v>37.91145874416134</v>
       </c>
       <c r="R14">
-        <v>212.330723663756</v>
+        <v>341.2031286974521</v>
       </c>
       <c r="S14">
-        <v>0.04360624128243876</v>
+        <v>0.07245628731399367</v>
       </c>
       <c r="T14">
-        <v>0.04360624128243876</v>
+        <v>0.07245628731399366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.029369333333333</v>
+        <v>3.633574000000001</v>
       </c>
       <c r="H15">
-        <v>12.088108</v>
+        <v>10.900722</v>
       </c>
       <c r="I15">
-        <v>0.410099902266277</v>
+        <v>0.4329505324422505</v>
       </c>
       <c r="J15">
-        <v>0.410099902266277</v>
+        <v>0.4329505324422504</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>100.264818</v>
       </c>
       <c r="O15">
-        <v>0.6069501863972739</v>
+        <v>0.5360787938719054</v>
       </c>
       <c r="P15">
-        <v>0.6069501863972738</v>
+        <v>0.5360787938719054</v>
       </c>
       <c r="Q15">
-        <v>134.6679942871493</v>
+        <v>121.439878599844</v>
       </c>
       <c r="R15">
-        <v>1212.011948584344</v>
+        <v>1092.958907398596</v>
       </c>
       <c r="S15">
-        <v>0.2489102121220207</v>
+        <v>0.2320955992378409</v>
       </c>
       <c r="T15">
-        <v>0.2489102121220206</v>
+        <v>0.2320955992378408</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.029369333333333</v>
+        <v>3.633574000000001</v>
       </c>
       <c r="H16">
-        <v>12.088108</v>
+        <v>10.900722</v>
       </c>
       <c r="I16">
-        <v>0.410099902266277</v>
+        <v>0.4329505324422505</v>
       </c>
       <c r="J16">
-        <v>0.410099902266277</v>
+        <v>0.4329505324422504</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.267428</v>
+        <v>18.162159</v>
       </c>
       <c r="N16">
-        <v>45.802284</v>
+        <v>54.486477</v>
       </c>
       <c r="O16">
-        <v>0.2772628062938376</v>
+        <v>0.2913189836188534</v>
       </c>
       <c r="P16">
-        <v>0.2772628062938375</v>
+        <v>0.2913189836188534</v>
       </c>
       <c r="Q16">
-        <v>61.51810618207467</v>
+        <v>65.99354872626601</v>
       </c>
       <c r="R16">
-        <v>553.662955638672</v>
+        <v>593.9419385363941</v>
       </c>
       <c r="S16">
-        <v>0.1137054497631765</v>
+        <v>0.1261267090683178</v>
       </c>
       <c r="T16">
-        <v>0.1137054497631765</v>
+        <v>0.1261267090683178</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.029369333333333</v>
+        <v>3.633574000000001</v>
       </c>
       <c r="H17">
-        <v>12.088108</v>
+        <v>10.900722</v>
       </c>
       <c r="I17">
-        <v>0.410099902266277</v>
+        <v>0.4329505324422505</v>
       </c>
       <c r="J17">
-        <v>0.410099902266277</v>
+        <v>0.4329505324422504</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5207056666666666</v>
+        <v>0.3271573333333334</v>
       </c>
       <c r="N17">
-        <v>1.562117</v>
+        <v>0.981472</v>
       </c>
       <c r="O17">
-        <v>0.009456230243437438</v>
+        <v>0.005247566758452071</v>
       </c>
       <c r="P17">
-        <v>0.009456230243437438</v>
+        <v>0.00524756675845207</v>
       </c>
       <c r="Q17">
-        <v>2.098115444959555</v>
+        <v>1.188750380309334</v>
       </c>
       <c r="R17">
-        <v>18.883039004636</v>
+        <v>10.698753422784</v>
       </c>
       <c r="S17">
-        <v>0.003877999098641106</v>
+        <v>0.002271936822098078</v>
       </c>
       <c r="T17">
-        <v>0.003877999098641106</v>
+        <v>0.002271936822098078</v>
       </c>
     </row>
   </sheetData>
